--- a/BackTest/2020-01-16 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-16 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1243,11 +1243,17 @@
         <v>-176134.6822629732</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>76.34999999999999</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1282,17 @@
         <v>-157360.3566629732</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>76.02</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1321,17 @@
         <v>-105740.5118629732</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>76.3</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1360,17 @@
         <v>-106372.0445629732</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>76.45</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,7 +1399,7 @@
         <v>-109451.4973629732</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>76.42</v>
@@ -1383,7 +1407,7 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -1414,7 +1438,7 @@
         <v>-109451.4973629732</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>76.40000000000001</v>
@@ -1453,7 +1477,7 @@
         <v>-109451.4973629732</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>76.40000000000001</v>
@@ -1492,7 +1516,7 @@
         <v>-109451.4973629732</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>76.40000000000001</v>
@@ -1531,9 +1555,11 @@
         <v>-109451.4973629732</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>76.40000000000001</v>
+      </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
@@ -1568,9 +1594,11 @@
         <v>-103170.6131629732</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>76.40000000000001</v>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
@@ -1605,7 +1633,7 @@
         <v>-110927.1839629732</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>76.42</v>
@@ -1644,9 +1672,11 @@
         <v>-110927.1839629732</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>76.40000000000001</v>
+      </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
@@ -1681,9 +1711,11 @@
         <v>-106665.9056629732</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>76.40000000000001</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
@@ -1718,9 +1750,11 @@
         <v>-106665.9056629732</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>76.5</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1755,9 +1789,11 @@
         <v>-103038.1285629732</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>76.5</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1792,9 +1828,11 @@
         <v>-103038.1285629732</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>76.59999999999999</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -1829,9 +1867,11 @@
         <v>-103038.1285629732</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>76.59999999999999</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -1866,9 +1906,11 @@
         <v>-103038.1285629732</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>76.59999999999999</v>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -1903,9 +1945,11 @@
         <v>-77725.3565629732</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>76.59999999999999</v>
+      </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
@@ -1940,9 +1984,11 @@
         <v>-77725.3565629732</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>76.7</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -1977,9 +2023,11 @@
         <v>-88110.6469629732</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>76.7</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2014,9 +2062,11 @@
         <v>-87420.6469629732</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>76.15000000000001</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2051,9 +2101,11 @@
         <v>-89186.3368629732</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>76.23</v>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
@@ -2088,9 +2140,11 @@
         <v>-87789.0397629732</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>76</v>
+      </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
@@ -2125,9 +2179,11 @@
         <v>-86789.0397629732</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>76.44</v>
+      </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
@@ -2162,9 +2218,11 @@
         <v>-84202.71906297321</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>76.48999999999999</v>
+      </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
@@ -2199,9 +2257,11 @@
         <v>-76381.52276297321</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>76.5</v>
+      </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
@@ -2236,9 +2296,11 @@
         <v>-76381.52276297321</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>76.59999999999999</v>
+      </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
@@ -2273,9 +2335,11 @@
         <v>-76381.52276297321</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>76.59999999999999</v>
+      </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
@@ -2310,9 +2374,11 @@
         <v>-40535.56576297321</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>76.59999999999999</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2347,9 +2413,11 @@
         <v>7857.080137026795</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>76.90000000000001</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2421,9 +2489,11 @@
         <v>17757.08013702679</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>77</v>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -5196,16 +5266,18 @@
         <v>296664.404204866</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L133" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
       <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
@@ -5231,11 +5303,15 @@
         <v>296578.7222048661</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5264,11 +5340,15 @@
         <v>296367.4777048661</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5297,11 +5377,15 @@
         <v>297607.7296656796</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5334,7 +5418,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5367,7 +5455,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5400,7 +5492,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5433,7 +5529,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5466,7 +5566,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5499,7 +5603,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5532,7 +5640,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5565,7 +5677,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5594,11 +5710,15 @@
         <v>279968.5303656796</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5631,7 +5751,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5660,11 +5784,15 @@
         <v>279257.5303656796</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5697,7 +5825,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5730,7 +5862,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5763,7 +5899,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5796,7 +5936,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5829,7 +5973,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5862,7 +6010,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5895,7 +6047,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5928,7 +6084,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5961,7 +6121,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5994,7 +6158,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6027,7 +6195,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6060,7 +6232,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6093,7 +6269,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6126,7 +6306,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6159,7 +6343,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6192,7 +6380,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6225,7 +6417,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6258,7 +6454,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6291,7 +6491,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6324,7 +6528,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6357,7 +6565,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6390,7 +6602,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6423,7 +6639,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6456,7 +6676,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6489,7 +6713,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6522,7 +6750,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6555,7 +6787,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6588,7 +6824,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6621,7 +6861,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6654,7 +6898,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6687,7 +6935,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6720,7 +6972,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6753,7 +7009,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6786,7 +7046,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6819,7 +7083,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6852,7 +7120,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6885,7 +7157,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6918,7 +7194,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6951,7 +7231,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6984,7 +7268,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7017,7 +7305,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7050,7 +7342,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7083,7 +7379,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7116,7 +7416,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7149,7 +7453,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7182,7 +7490,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7215,7 +7527,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7248,7 +7564,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7281,7 +7601,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7314,7 +7638,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7347,7 +7675,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7380,7 +7712,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7413,7 +7749,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7446,7 +7786,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7479,7 +7823,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7512,7 +7860,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7545,7 +7897,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7578,7 +7934,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7611,7 +7971,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7644,7 +8008,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7677,7 +8045,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7710,7 +8082,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7743,7 +8119,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7776,7 +8156,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7809,7 +8193,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7842,7 +8230,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7875,7 +8267,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7908,7 +8304,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7941,7 +8341,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7974,7 +8378,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8007,7 +8415,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8040,7 +8452,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8073,7 +8489,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8102,11 +8522,15 @@
         <v>87961.0669139852</v>
       </c>
       <c r="H221" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8139,7 +8563,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8172,7 +8600,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8205,7 +8637,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8238,7 +8674,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8271,7 +8711,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8304,7 +8748,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8337,7 +8785,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8370,7 +8822,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8403,7 +8859,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8436,7 +8896,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8469,7 +8933,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8502,7 +8970,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8535,7 +9007,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8568,7 +9044,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8601,7 +9081,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8634,7 +9118,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8667,7 +9155,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8700,7 +9192,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8733,7 +9229,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8766,7 +9266,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8799,7 +9303,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8832,7 +9340,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8865,7 +9377,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8898,7 +9414,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8931,7 +9451,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8964,7 +9488,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8997,7 +9525,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9030,7 +9562,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9063,7 +9599,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9096,7 +9636,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9129,7 +9673,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9162,7 +9710,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9195,7 +9747,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9228,7 +9784,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9261,7 +9821,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9294,7 +9858,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9327,7 +9895,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9360,7 +9932,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9393,7 +9969,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9426,7 +10006,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9459,7 +10043,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9492,7 +10080,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9525,7 +10117,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9558,7 +10154,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9591,7 +10191,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9624,7 +10228,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9657,7 +10265,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9690,7 +10302,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9723,7 +10339,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9756,7 +10376,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9789,7 +10413,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9822,7 +10450,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9855,7 +10487,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9888,7 +10524,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9921,7 +10561,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9954,7 +10598,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9987,7 +10635,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10020,7 +10672,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10053,7 +10709,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10086,7 +10746,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10119,7 +10783,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10152,7 +10820,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10185,7 +10857,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10218,7 +10894,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10251,7 +10931,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10280,11 +10964,15 @@
         <v>100012.0055564106</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10317,7 +11005,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10346,11 +11038,15 @@
         <v>100012.0055564106</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10383,7 +11079,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10412,11 +11112,15 @@
         <v>100012.0055564106</v>
       </c>
       <c r="H291" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10445,11 +11149,15 @@
         <v>100012.0055564106</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10478,11 +11186,15 @@
         <v>83466.95556693079</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10511,11 +11223,15 @@
         <v>90511.04613631105</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10548,7 +11264,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10577,11 +11297,15 @@
         <v>86369.22443631105</v>
       </c>
       <c r="H296" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10610,11 +11334,15 @@
         <v>90575.74593631105</v>
       </c>
       <c r="H297" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10643,11 +11371,15 @@
         <v>95422.76563631106</v>
       </c>
       <c r="H298" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10680,7 +11412,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10713,7 +11449,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10746,7 +11486,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10779,7 +11523,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10812,7 +11560,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10845,7 +11597,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10878,7 +11634,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10911,7 +11671,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10944,7 +11708,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10977,7 +11745,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11010,7 +11782,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11043,7 +11819,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11076,7 +11856,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11109,7 +11893,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11138,11 +11926,15 @@
         <v>139191.6774363111</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11171,11 +11963,15 @@
         <v>138984.2880363111</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11208,7 +12004,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11241,7 +12041,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11274,7 +12078,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11307,7 +12115,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11340,7 +12152,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11373,7 +12189,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11406,7 +12226,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11439,7 +12263,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11472,7 +12300,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11505,7 +12337,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11538,7 +12374,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11571,7 +12411,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11604,7 +12448,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11637,7 +12485,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11670,7 +12522,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11703,7 +12559,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11736,7 +12596,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11769,7 +12633,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11802,7 +12670,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11835,7 +12707,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11868,7 +12744,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11901,7 +12781,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11934,7 +12818,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11967,7 +12855,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12000,7 +12892,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12033,7 +12929,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12066,7 +12966,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12099,7 +13003,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12132,7 +13040,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12161,11 +13073,15 @@
         <v>52383.68173631107</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12194,11 +13110,15 @@
         <v>51618.27073631107</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12227,11 +13147,15 @@
         <v>48993.21363631108</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12260,11 +13184,15 @@
         <v>63764.64433631107</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12293,11 +13221,15 @@
         <v>63764.64433631107</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12326,11 +13258,15 @@
         <v>52447.34433631107</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12359,11 +13295,15 @@
         <v>35402.02523631107</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12392,11 +13332,15 @@
         <v>31702.02523631107</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12425,11 +13369,15 @@
         <v>31702.02523631107</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12458,11 +13406,15 @@
         <v>31702.02523631107</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12491,11 +13443,15 @@
         <v>7682.433636311071</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12524,11 +13480,15 @@
         <v>7682.433636311071</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12557,11 +13517,15 @@
         <v>18098.72913631107</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12590,11 +13554,15 @@
         <v>2858.30693631107</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12623,11 +13591,15 @@
         <v>-37725.69306368893</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12656,11 +13628,15 @@
         <v>-36582.92076368893</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12689,11 +13665,15 @@
         <v>-24555.41946368893</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12722,11 +13702,15 @@
         <v>-26640.80766368893</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12755,11 +13739,15 @@
         <v>-22880.67966368893</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12788,11 +13776,15 @@
         <v>-26013.05246368893</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12821,11 +13813,15 @@
         <v>-26013.05246368893</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12854,11 +13850,15 @@
         <v>-58657.88296368893</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12887,11 +13887,15 @@
         <v>-58657.88296368893</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12920,11 +13924,15 @@
         <v>-58657.88296368893</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12953,11 +13961,15 @@
         <v>-58657.88296368893</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12986,11 +13998,15 @@
         <v>-58657.88296368893</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13023,7 +14039,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13056,7 +14076,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13085,11 +14109,15 @@
         <v>-64522.59246368893</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13118,11 +14146,15 @@
         <v>-110216.1077636889</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13151,11 +14183,15 @@
         <v>-108919.3269636889</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13184,11 +14220,15 @@
         <v>-102640.1432636889</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13217,11 +14257,15 @@
         <v>-102640.1432636889</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13250,11 +14294,15 @@
         <v>-102640.1432636889</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13283,11 +14331,15 @@
         <v>-102640.1432636889</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13316,11 +14368,15 @@
         <v>-89748.43756368893</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13349,11 +14405,15 @@
         <v>-100960.1637636889</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13382,11 +14442,15 @@
         <v>-100960.1637636889</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13415,11 +14479,15 @@
         <v>-100960.1637636889</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13452,7 +14520,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13485,7 +14557,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13514,11 +14590,15 @@
         <v>-100960.1637636889</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13551,7 +14631,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13584,7 +14668,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13617,7 +14705,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13650,7 +14742,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13683,7 +14779,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13716,7 +14816,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13749,7 +14853,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13782,7 +14890,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13815,7 +14927,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13848,7 +14964,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13881,7 +15001,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13914,7 +15038,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13947,7 +15075,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13980,7 +15112,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14013,7 +15149,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14046,7 +15186,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14079,7 +15223,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14112,7 +15260,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14145,7 +15297,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14178,7 +15334,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14207,11 +15367,15 @@
         <v>-62557.13006368894</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14244,7 +15408,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14277,7 +15445,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14310,7 +15482,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14343,7 +15519,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14376,7 +15556,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14409,7 +15593,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14442,7 +15630,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14475,7 +15667,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14508,7 +15704,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14541,7 +15741,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14574,7 +15778,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14607,7 +15815,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14636,11 +15848,15 @@
         <v>-40210.28626368893</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14669,11 +15885,15 @@
         <v>-40210.28626368893</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14702,11 +15922,15 @@
         <v>-40210.28626368893</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14735,11 +15959,15 @@
         <v>-40210.28626368893</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14768,11 +15996,15 @@
         <v>-40210.28626368893</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14801,11 +16033,15 @@
         <v>-40210.28626368893</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14834,11 +16070,15 @@
         <v>-36513.47276368893</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14867,11 +16107,15 @@
         <v>-38035.95326368893</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14900,11 +16144,15 @@
         <v>-37394.93569857688</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14933,11 +16181,15 @@
         <v>-46373.17759857688</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14966,11 +16218,15 @@
         <v>-41373.17759857688</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14999,11 +16255,15 @@
         <v>-47935.95419857687</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15032,11 +16292,15 @@
         <v>-47935.95419857687</v>
       </c>
       <c r="H431" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15069,7 +16333,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15102,7 +16370,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15135,7 +16407,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15168,7 +16444,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15201,7 +16481,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15234,7 +16518,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15267,7 +16555,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15300,7 +16592,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15333,7 +16629,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15366,7 +16666,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15399,7 +16703,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15432,7 +16740,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15465,7 +16777,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15498,7 +16814,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15531,7 +16851,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15564,7 +16888,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15597,7 +16925,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15630,7 +16962,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15663,7 +16999,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15696,7 +17036,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15729,7 +17073,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15762,7 +17110,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15795,7 +17147,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15828,7 +17184,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15861,7 +17221,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15894,7 +17258,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15927,7 +17295,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15960,7 +17332,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15993,7 +17369,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16026,7 +17406,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16059,7 +17443,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16092,7 +17480,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16125,7 +17517,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16158,7 +17554,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16191,7 +17591,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16224,7 +17628,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16257,7 +17665,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16286,11 +17698,15 @@
         <v>47239.18980142312</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16319,11 +17735,15 @@
         <v>58979.60420142312</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16352,11 +17772,15 @@
         <v>58979.60420142312</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16385,11 +17809,15 @@
         <v>57239.60420142312</v>
       </c>
       <c r="H472" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16422,7 +17850,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16451,11 +17883,15 @@
         <v>93099.93390142312</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16484,11 +17920,15 @@
         <v>1226.146901423126</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16517,11 +17957,15 @@
         <v>1226.146901423126</v>
       </c>
       <c r="H476" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16550,11 +17994,15 @@
         <v>1226.146901423126</v>
       </c>
       <c r="H477" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16583,11 +18031,15 @@
         <v>-8257.748398576874</v>
       </c>
       <c r="H478" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16616,11 +18068,15 @@
         <v>-8257.748398576874</v>
       </c>
       <c r="H479" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16649,11 +18105,15 @@
         <v>-8582.233298576873</v>
       </c>
       <c r="H480" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16686,7 +18146,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16719,7 +18183,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16752,7 +18220,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16785,7 +18257,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16818,7 +18294,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16851,7 +18331,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16884,7 +18368,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16917,7 +18405,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16950,7 +18442,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16983,7 +18479,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17016,7 +18516,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17049,7 +18553,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17082,7 +18590,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17115,7 +18627,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17148,7 +18664,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17181,7 +18701,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17214,7 +18738,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17247,7 +18775,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17280,7 +18812,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17313,7 +18849,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17346,7 +18886,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17379,7 +18923,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17412,7 +18960,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17445,7 +18997,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17478,7 +19034,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17511,7 +19071,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17544,7 +19108,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17577,7 +19145,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17610,7 +19182,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17643,7 +19219,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17676,7 +19256,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17709,7 +19293,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17742,7 +19330,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17775,7 +19367,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17808,7 +19404,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17841,7 +19441,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17874,7 +19478,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17907,7 +19515,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17940,7 +19552,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17973,7 +19589,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18006,7 +19626,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18039,7 +19663,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18072,7 +19700,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18105,7 +19737,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18138,7 +19774,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18171,7 +19811,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18204,7 +19848,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18237,7 +19885,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18270,7 +19922,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18303,7 +19959,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18336,7 +19996,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18369,7 +20033,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18402,7 +20070,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18435,7 +20107,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18468,7 +20144,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18501,7 +20181,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18534,7 +20218,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18567,7 +20255,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18600,7 +20292,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18633,7 +20329,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18666,7 +20366,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18695,11 +20399,15 @@
         <v>293831.1960582279</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18728,11 +20436,15 @@
         <v>294532.1960582279</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18765,7 +20477,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18798,7 +20514,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18831,7 +20551,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18864,7 +20588,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18893,11 +20621,15 @@
         <v>304387.8685582279</v>
       </c>
       <c r="H548" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18926,11 +20658,15 @@
         <v>462455.8477582279</v>
       </c>
       <c r="H549" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18959,11 +20695,15 @@
         <v>473381.5436582279</v>
       </c>
       <c r="H550" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18992,11 +20732,15 @@
         <v>517808.0889679688</v>
       </c>
       <c r="H551" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19025,11 +20769,15 @@
         <v>602579.4913679687</v>
       </c>
       <c r="H552" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19058,11 +20806,15 @@
         <v>626653.7666018072</v>
       </c>
       <c r="H553" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19091,11 +20843,15 @@
         <v>625353.0330018072</v>
       </c>
       <c r="H554" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19124,11 +20880,15 @@
         <v>556356.1086018072</v>
       </c>
       <c r="H555" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19157,14 +20917,16 @@
         <v>559521.9179018071</v>
       </c>
       <c r="H556" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
-      <c r="L556" t="n">
-        <v>1</v>
-      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L556" t="inlineStr"/>
       <c r="M556" t="inlineStr"/>
     </row>
     <row r="557">
@@ -19190,7 +20952,7 @@
         <v>542458.6663018072</v>
       </c>
       <c r="H557" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19223,7 +20985,7 @@
         <v>558052.1183018072</v>
       </c>
       <c r="H558" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19256,7 +21018,7 @@
         <v>564962.2030018072</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19322,7 +21084,7 @@
         <v>518658.8650018072</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19355,7 +21117,7 @@
         <v>512159.3208018072</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19388,7 +21150,7 @@
         <v>512170.1766018072</v>
       </c>
       <c r="H563" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19421,7 +21183,7 @@
         <v>512170.1766018072</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19454,7 +21216,7 @@
         <v>510976.1766018072</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19487,7 +21249,7 @@
         <v>504518.0099018072</v>
       </c>
       <c r="H566" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19520,7 +21282,7 @@
         <v>504524.0099018072</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19553,7 +21315,7 @@
         <v>504524.0099018072</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19586,7 +21348,7 @@
         <v>503894.9554018072</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19619,7 +21381,7 @@
         <v>503900.9554018072</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19652,7 +21414,7 @@
         <v>491900.9554018072</v>
       </c>
       <c r="H571" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19685,7 +21447,7 @@
         <v>44124.51830180723</v>
       </c>
       <c r="H572" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19718,7 +21480,7 @@
         <v>89870.27640180723</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19751,7 +21513,7 @@
         <v>79670.27640180723</v>
       </c>
       <c r="H574" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19784,7 +21546,7 @@
         <v>97210.27640180723</v>
       </c>
       <c r="H575" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19817,7 +21579,7 @@
         <v>96924.75330180723</v>
       </c>
       <c r="H576" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19850,7 +21612,7 @@
         <v>104730.2126018072</v>
       </c>
       <c r="H577" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19883,7 +21645,7 @@
         <v>105144.9721018072</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19916,7 +21678,7 @@
         <v>105144.9721018072</v>
       </c>
       <c r="H579" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -20246,7 +22008,7 @@
         <v>-3849.08549819277</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -20279,7 +22041,7 @@
         <v>-3849.08549819277</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -20312,7 +22074,7 @@
         <v>-3849.08549819277</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -20345,7 +22107,7 @@
         <v>-3849.08549819277</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -20356,6 +22118,6 @@
       <c r="M592" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-16 BackTest ENJ.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -913,11 +913,17 @@
         <v>-377673.1989629732</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>76.64</v>
+      </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -946,11 +952,17 @@
         <v>-381536.8166629732</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>76.59999999999999</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +991,17 @@
         <v>-381536.8166629732</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>76.5</v>
+      </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1030,17 @@
         <v>1575.1833370268</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>76.5</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1073,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1110,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1147,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1184,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1221,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1258,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1251,7 +1299,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L26" t="n">
@@ -1282,11 +1330,9 @@
         <v>-157360.3566629732</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>76.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
@@ -1321,11 +1367,9 @@
         <v>-105740.5118629732</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>76.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
@@ -1360,11 +1404,9 @@
         <v>-106372.0445629732</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>76.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
@@ -1750,11 +1792,9 @@
         <v>-106665.9056629732</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>76.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1789,11 +1829,9 @@
         <v>-103038.1285629732</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>76.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1828,11 +1866,9 @@
         <v>-103038.1285629732</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>76.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -1867,11 +1903,9 @@
         <v>-103038.1285629732</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>76.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -1906,11 +1940,9 @@
         <v>-103038.1285629732</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>76.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -1984,11 +2016,9 @@
         <v>-77725.3565629732</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>76.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2023,11 +2053,9 @@
         <v>-88110.6469629732</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>76.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2062,11 +2090,9 @@
         <v>-87420.6469629732</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>76.15000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2374,11 +2400,9 @@
         <v>-40535.56576297321</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>76.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -2413,11 +2437,9 @@
         <v>7857.080137026795</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>76.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2489,11 +2511,9 @@
         <v>17757.08013702679</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -3897,18 +3917,16 @@
         <v>198083.2826370268</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
@@ -3934,15 +3952,11 @@
         <v>249801.8981370268</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3971,15 +3985,11 @@
         <v>249801.8981370268</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4008,15 +4018,11 @@
         <v>247904.611704866</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4045,15 +4051,11 @@
         <v>247904.611704866</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4082,15 +4084,11 @@
         <v>247904.611704866</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4119,15 +4117,11 @@
         <v>247904.611704866</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4156,15 +4150,11 @@
         <v>251419.300704866</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4193,15 +4183,11 @@
         <v>251419.300704866</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4230,15 +4216,11 @@
         <v>251419.300704866</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4267,15 +4249,11 @@
         <v>251419.300704866</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4304,15 +4282,11 @@
         <v>251419.300704866</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4341,15 +4315,11 @@
         <v>259551.508904866</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4378,15 +4348,11 @@
         <v>275958.430804866</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4415,15 +4381,11 @@
         <v>275958.430804866</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4452,15 +4414,11 @@
         <v>278285.128704866</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4489,15 +4447,11 @@
         <v>278285.128704866</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4526,15 +4480,11 @@
         <v>273705.582904866</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4563,15 +4513,11 @@
         <v>312497.277804866</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4600,15 +4546,11 @@
         <v>307721.845404866</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4637,15 +4579,11 @@
         <v>214345.080604866</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4674,15 +4612,11 @@
         <v>214355.080604866</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4711,15 +4645,11 @@
         <v>212257.547304866</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4748,15 +4678,11 @@
         <v>213177.547304866</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4785,15 +4711,11 @@
         <v>223112.324904866</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4822,15 +4744,11 @@
         <v>222199.835904866</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4859,15 +4777,11 @@
         <v>256531.338704866</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4896,15 +4810,11 @@
         <v>288429.636304866</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4933,15 +4843,11 @@
         <v>263069.526304866</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4970,15 +4876,11 @@
         <v>267575.473004866</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5007,15 +4909,11 @@
         <v>281851.936404866</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5044,15 +4942,11 @@
         <v>281851.936404866</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5081,15 +4975,11 @@
         <v>285750.915304866</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5118,15 +5008,11 @@
         <v>296733.582704866</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5155,15 +5041,11 @@
         <v>321988.703304866</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5192,15 +5074,11 @@
         <v>296807.904204866</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5229,15 +5107,11 @@
         <v>296807.904204866</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5266,15 +5140,11 @@
         <v>296664.404204866</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5303,15 +5173,11 @@
         <v>296578.7222048661</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5340,15 +5206,11 @@
         <v>296367.4777048661</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5377,15 +5239,11 @@
         <v>297607.7296656796</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5414,15 +5272,11 @@
         <v>297540.4817656795</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5451,15 +5305,11 @@
         <v>297540.4817656795</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5488,15 +5338,11 @@
         <v>282540.4817656795</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5525,15 +5371,11 @@
         <v>282540.4817656795</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5562,15 +5404,11 @@
         <v>276901.4416656796</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5599,15 +5437,11 @@
         <v>279956.5303656796</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5636,15 +5470,11 @@
         <v>279968.5303656796</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5673,15 +5503,11 @@
         <v>279968.5303656796</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5710,15 +5536,11 @@
         <v>279968.5303656796</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5747,15 +5569,11 @@
         <v>279257.5303656796</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5788,11 +5606,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5825,11 +5639,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5862,11 +5672,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5899,11 +5705,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5936,11 +5738,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5973,11 +5771,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6010,11 +5804,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6047,11 +5837,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6084,11 +5870,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6121,11 +5903,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6158,11 +5936,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6195,11 +5969,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6232,11 +6002,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6269,11 +6035,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6306,11 +6068,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6343,11 +6101,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6380,11 +6134,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6417,11 +6167,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6454,11 +6200,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6491,11 +6233,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6528,11 +6266,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6565,11 +6299,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6602,11 +6332,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6639,11 +6365,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6676,11 +6398,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6713,11 +6431,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6750,11 +6464,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6787,11 +6497,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6824,11 +6530,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6861,11 +6563,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6898,11 +6596,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6935,11 +6629,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6972,11 +6662,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7009,11 +6695,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7046,11 +6728,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7083,11 +6761,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7120,11 +6794,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7157,11 +6827,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7194,11 +6860,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7231,11 +6893,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7268,11 +6926,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7305,11 +6959,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7342,11 +6992,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7379,11 +7025,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7416,11 +7058,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7453,11 +7091,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7490,11 +7124,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7527,11 +7157,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7564,11 +7190,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7601,11 +7223,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7638,11 +7256,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7675,11 +7289,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7712,11 +7322,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7749,11 +7355,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7786,11 +7388,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7823,11 +7421,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7860,11 +7454,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7897,11 +7487,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7934,11 +7520,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7971,11 +7553,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8008,11 +7586,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8045,11 +7619,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8082,11 +7652,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8119,11 +7685,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8152,15 +7714,11 @@
         <v>44332.84181398519</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8189,15 +7747,11 @@
         <v>30228.56691398519</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8226,15 +7780,11 @@
         <v>30767.56691398519</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8263,15 +7813,11 @@
         <v>29333.08491398519</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8300,15 +7846,11 @@
         <v>25332.60291398519</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8337,15 +7879,11 @@
         <v>48456.04291398519</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8374,15 +7912,11 @@
         <v>89162.4998139852</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8411,15 +7945,11 @@
         <v>35994.1758139852</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8448,15 +7978,11 @@
         <v>35994.1758139852</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8485,15 +8011,11 @@
         <v>35994.1758139852</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8522,15 +8044,11 @@
         <v>87961.0669139852</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8559,15 +8077,11 @@
         <v>84634.7419139852</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8596,15 +8110,11 @@
         <v>106014.9655139852</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8633,15 +8143,11 @@
         <v>104319.2184139852</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8670,15 +8176,11 @@
         <v>104319.2184139852</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8707,15 +8209,11 @@
         <v>25781.7444139852</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8744,15 +8242,11 @@
         <v>25253.7444139852</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8781,15 +8275,11 @@
         <v>25034.9099139852</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8818,15 +8308,11 @@
         <v>23762.6773139852</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8855,15 +8341,11 @@
         <v>23762.6773139852</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8892,15 +8374,11 @@
         <v>31705.6773139852</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8929,15 +8407,11 @@
         <v>16054.6535139852</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8966,15 +8440,11 @@
         <v>11225.9412139852</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9003,15 +8473,11 @@
         <v>9775.941213985199</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9040,15 +8506,11 @@
         <v>-12954.9326860148</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9077,15 +8539,11 @@
         <v>-67290.5371860148</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9114,15 +8572,11 @@
         <v>-67290.5371860148</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9155,11 +8609,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9192,11 +8642,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9225,15 +8671,11 @@
         <v>-83328.26038601479</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9262,15 +8704,11 @@
         <v>-67053.30138601479</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9299,15 +8737,11 @@
         <v>-72236.35148601478</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9336,15 +8770,11 @@
         <v>-72236.35148601478</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9373,15 +8803,11 @@
         <v>-59255.93058601479</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9410,15 +8836,11 @@
         <v>-62193.47528601479</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9447,15 +8869,11 @@
         <v>-52542.07348601479</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9484,15 +8902,11 @@
         <v>-52542.07348601479</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9521,15 +8935,11 @@
         <v>-66660.07348601479</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9558,15 +8968,11 @@
         <v>-296602.7495860148</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9599,11 +9005,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9636,11 +9038,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9673,11 +9071,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9710,11 +9104,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9747,11 +9137,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9784,11 +9170,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9821,11 +9203,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9858,11 +9236,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9895,11 +9269,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9932,11 +9302,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9969,11 +9335,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10006,11 +9368,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10043,11 +9401,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10080,11 +9434,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10117,11 +9467,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10154,11 +9500,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10191,11 +9533,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10228,11 +9566,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10265,11 +9599,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10298,15 +9628,11 @@
         <v>33068.22925641059</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10335,15 +9661,11 @@
         <v>35146.09845641059</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10372,15 +9694,11 @@
         <v>35146.09845641059</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10409,15 +9727,11 @@
         <v>35146.09845641059</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10446,15 +9760,11 @@
         <v>38473.79675641059</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10483,15 +9793,11 @@
         <v>38473.79675641059</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10520,15 +9826,11 @@
         <v>44037.46585641059</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10557,15 +9859,11 @@
         <v>44037.46585641059</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10594,15 +9892,11 @@
         <v>47766.46585641059</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10631,15 +9925,11 @@
         <v>65329.8225564106</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10668,15 +9958,11 @@
         <v>65329.8225564106</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10705,15 +9991,11 @@
         <v>90972.3088564106</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10742,15 +10024,11 @@
         <v>90972.3088564106</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10783,11 +10061,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10820,11 +10094,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10857,11 +10127,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10894,11 +10160,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10931,11 +10193,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10968,11 +10226,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11005,11 +10259,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11042,11 +10292,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11079,11 +10325,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11116,11 +10358,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11153,11 +10391,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11190,11 +10424,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11227,11 +10457,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11264,11 +10490,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11301,11 +10523,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11338,11 +10556,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11375,11 +10589,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11412,11 +10622,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11449,11 +10655,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11486,11 +10688,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11523,11 +10721,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11560,11 +10754,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11597,11 +10787,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11634,11 +10820,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11671,11 +10853,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11708,11 +10886,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11745,11 +10919,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11782,11 +10952,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11819,11 +10985,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11856,11 +11018,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11893,11 +11051,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11930,11 +11084,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11967,11 +11117,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12004,11 +11150,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12041,11 +11183,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12078,11 +11216,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12115,11 +11249,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12152,11 +11282,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12189,11 +11315,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12226,11 +11348,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12263,11 +11381,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12300,11 +11414,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12337,11 +11447,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12374,11 +11480,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12411,11 +11513,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12448,11 +11546,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12485,11 +11579,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12522,11 +11612,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12559,11 +11645,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12596,11 +11678,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12633,11 +11711,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12670,11 +11744,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12707,11 +11777,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12744,11 +11810,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12781,11 +11843,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12818,11 +11876,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12855,11 +11909,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12892,11 +11942,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12929,11 +11975,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12966,11 +12008,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13003,11 +12041,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13040,11 +12074,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13077,11 +12107,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13114,11 +12140,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13151,11 +12173,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13188,11 +12206,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13225,11 +12239,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13262,11 +12272,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13299,11 +12305,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13336,11 +12338,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13373,11 +12371,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13410,11 +12404,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13447,11 +12437,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13484,11 +12470,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13521,11 +12503,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13558,11 +12536,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13595,11 +12569,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13632,11 +12602,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13669,11 +12635,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13706,11 +12668,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13743,11 +12701,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13780,11 +12734,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13817,11 +12767,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13854,11 +12800,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13891,11 +12833,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13928,11 +12866,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13965,11 +12899,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14002,11 +12932,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14039,11 +12965,7 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14076,11 +12998,7 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14113,11 +13031,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14150,11 +13064,7 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14187,11 +13097,7 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14224,11 +13130,7 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14261,11 +13163,7 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14298,11 +13196,7 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14335,11 +13229,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14372,11 +13262,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14409,11 +13295,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14446,11 +13328,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14483,11 +13361,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14520,11 +13394,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14557,11 +13427,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14594,11 +13460,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14631,11 +13493,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14668,11 +13526,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14705,11 +13559,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14742,11 +13592,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14779,11 +13625,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14816,11 +13658,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14853,11 +13691,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14890,11 +13724,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14927,11 +13757,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14964,11 +13790,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15001,11 +13823,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15038,11 +13856,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15075,11 +13889,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15112,11 +13922,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15145,15 +13951,11 @@
         <v>-76912.89086368894</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15182,15 +13984,11 @@
         <v>-65452.25436368894</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15219,15 +14017,11 @@
         <v>-65452.25436368894</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15256,15 +14050,11 @@
         <v>-65452.25436368894</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15293,15 +14083,11 @@
         <v>-64232.88856368894</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15330,15 +14116,11 @@
         <v>-64232.88856368894</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -15367,15 +14149,11 @@
         <v>-62557.13006368894</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15404,15 +14182,11 @@
         <v>-62557.13006368894</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15441,15 +14215,11 @@
         <v>-32157.60476368893</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15478,15 +14248,11 @@
         <v>-31716.26306368893</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15515,15 +14281,11 @@
         <v>-31716.26306368893</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15552,15 +14314,11 @@
         <v>-43043.76436368893</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15589,15 +14347,11 @@
         <v>-38806.49326368894</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15626,15 +14380,11 @@
         <v>-38806.49326368894</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15663,15 +14413,11 @@
         <v>-38806.49326368894</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15700,15 +14446,11 @@
         <v>-38669.49326368894</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15737,15 +14479,11 @@
         <v>-25473.28446368893</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15778,11 +14516,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15815,11 +14549,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15852,11 +14582,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15889,11 +14615,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15926,11 +14648,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15963,11 +14681,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16000,11 +14714,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16037,11 +14747,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16074,11 +14780,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16111,11 +14813,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16148,11 +14846,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16185,11 +14879,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16222,11 +14912,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16259,11 +14945,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16296,11 +14978,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16333,11 +15011,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16370,11 +15044,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16407,11 +15077,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16444,11 +15110,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16481,11 +15143,7 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16518,11 +15176,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16555,11 +15209,7 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16592,11 +15242,7 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16629,11 +15275,7 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16666,11 +15308,7 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16703,11 +15341,7 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16740,11 +15374,7 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16777,11 +15407,7 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16814,11 +15440,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16851,11 +15473,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16888,11 +15506,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16925,11 +15539,7 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -16962,11 +15572,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -16999,11 +15605,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17036,11 +15638,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17073,11 +15671,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17110,11 +15704,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17147,11 +15737,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17184,11 +15770,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17221,11 +15803,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17258,11 +15836,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17295,11 +15869,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17332,11 +15902,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17369,11 +15935,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17406,11 +15968,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17443,11 +16001,7 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17480,11 +16034,7 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17517,11 +16067,7 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17554,11 +16100,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17591,11 +16133,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17628,11 +16166,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17665,11 +16199,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17702,11 +16232,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17739,11 +16265,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17776,11 +16298,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17813,11 +16331,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17850,11 +16364,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17887,11 +16397,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17924,11 +16430,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -17961,11 +16463,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -17998,11 +16496,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18035,11 +16529,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18072,11 +16562,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18109,11 +16595,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18146,11 +16628,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18183,11 +16661,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18220,11 +16694,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18257,11 +16727,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18294,11 +16760,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18331,11 +16793,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18368,11 +16826,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18405,11 +16859,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18442,11 +16892,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18479,11 +16925,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18516,11 +16958,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18553,11 +16991,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18590,11 +17024,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18627,11 +17057,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18664,11 +17090,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18701,11 +17123,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18738,11 +17156,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18775,11 +17189,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18812,11 +17222,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18849,11 +17255,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18886,11 +17288,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18923,11 +17321,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18960,11 +17354,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18997,11 +17387,7 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19034,11 +17420,7 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19071,11 +17453,7 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19108,11 +17486,7 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19145,11 +17519,7 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -19182,11 +17552,7 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -19219,11 +17585,7 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -19256,11 +17618,7 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -19293,11 +17651,7 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -19330,11 +17684,7 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -19367,11 +17717,7 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -19404,11 +17750,7 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -19441,11 +17783,7 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -19478,11 +17816,7 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -19515,11 +17849,7 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -19552,11 +17882,7 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -19589,11 +17915,7 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -19626,11 +17948,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -19663,11 +17981,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19700,11 +18014,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19737,11 +18047,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19774,11 +18080,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19811,11 +18113,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19848,11 +18146,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19885,11 +18179,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19922,11 +18212,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19959,11 +18245,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19996,11 +18278,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -20033,11 +18311,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -20070,11 +18344,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -20107,11 +18377,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -20144,11 +18410,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -20181,11 +18443,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -20218,11 +18476,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -20255,11 +18509,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -20292,11 +18542,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -20329,11 +18575,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -20366,11 +18608,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -20403,11 +18641,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -20440,11 +18674,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -20477,11 +18707,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -20514,11 +18740,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -20551,11 +18773,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -20588,11 +18806,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -20625,11 +18839,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -20662,11 +18872,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -20699,11 +18905,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -20736,11 +18938,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -20773,11 +18971,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -20810,11 +19004,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -20847,11 +19037,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -20884,11 +19070,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -20917,16 +19099,14 @@
         <v>559521.9179018071</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
+      <c r="L556" t="n">
+        <v>1</v>
+      </c>
       <c r="M556" t="inlineStr"/>
     </row>
     <row r="557">
@@ -20952,7 +19132,7 @@
         <v>542458.6663018072</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20985,7 +19165,7 @@
         <v>558052.1183018072</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -21018,7 +19198,7 @@
         <v>564962.2030018072</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -21084,7 +19264,7 @@
         <v>518658.8650018072</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21117,7 +19297,7 @@
         <v>512159.3208018072</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21150,7 +19330,7 @@
         <v>512170.1766018072</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -21183,7 +19363,7 @@
         <v>512170.1766018072</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -21216,7 +19396,7 @@
         <v>510976.1766018072</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -21249,7 +19429,7 @@
         <v>504518.0099018072</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -21282,7 +19462,7 @@
         <v>504524.0099018072</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -21315,7 +19495,7 @@
         <v>504524.0099018072</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -21348,7 +19528,7 @@
         <v>503894.9554018072</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -21381,7 +19561,7 @@
         <v>503900.9554018072</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -21414,7 +19594,7 @@
         <v>491900.9554018072</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -21447,7 +19627,7 @@
         <v>44124.51830180723</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -21480,7 +19660,7 @@
         <v>89870.27640180723</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -21513,7 +19693,7 @@
         <v>79670.27640180723</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21546,7 +19726,7 @@
         <v>97210.27640180723</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21579,7 +19759,7 @@
         <v>96924.75330180723</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21612,7 +19792,7 @@
         <v>104730.2126018072</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -21645,7 +19825,7 @@
         <v>105144.9721018072</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21678,7 +19858,7 @@
         <v>105144.9721018072</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -22008,7 +20188,7 @@
         <v>-3849.08549819277</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -22041,7 +20221,7 @@
         <v>-3849.08549819277</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -22074,7 +20254,7 @@
         <v>-3849.08549819277</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22107,7 +20287,7 @@
         <v>-3849.08549819277</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22118,6 +20298,6 @@
       <c r="M592" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest ENJ.xlsx
+++ b/BackTest/2020-01-16 BackTest ENJ.xlsx
@@ -913,17 +913,11 @@
         <v>-377673.1989629732</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>76.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -952,17 +946,11 @@
         <v>-381536.8166629732</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>76.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -991,17 +979,11 @@
         <v>-381536.8166629732</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>76.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1030,17 +1012,11 @@
         <v>1575.1833370268</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>76.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1073,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1110,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1147,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1184,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1221,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1258,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1291,17 +1243,11 @@
         <v>-176134.6822629732</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>76.34999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1334,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1371,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1449,7 +1383,7 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L30" t="n">
@@ -1792,9 +1726,11 @@
         <v>-106665.9056629732</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>76.5</v>
+      </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
@@ -1829,9 +1765,11 @@
         <v>-103038.1285629732</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>76.5</v>
+      </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
@@ -1866,9 +1804,11 @@
         <v>-103038.1285629732</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>76.59999999999999</v>
+      </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
@@ -1903,9 +1843,11 @@
         <v>-103038.1285629732</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>76.59999999999999</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
@@ -1940,9 +1882,11 @@
         <v>-103038.1285629732</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>76.59999999999999</v>
+      </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
@@ -2016,9 +1960,11 @@
         <v>-77725.3565629732</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>76.7</v>
+      </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
@@ -2053,9 +1999,11 @@
         <v>-88110.6469629732</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>76.7</v>
+      </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
@@ -2090,9 +2038,11 @@
         <v>-87420.6469629732</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>76.15000000000001</v>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
@@ -2400,9 +2350,11 @@
         <v>-40535.56576297321</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>76.59999999999999</v>
+      </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
@@ -3917,16 +3869,18 @@
         <v>198083.2826370268</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L96" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
       <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
@@ -3952,11 +3906,15 @@
         <v>249801.8981370268</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3985,11 +3943,15 @@
         <v>249801.8981370268</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4018,11 +3980,15 @@
         <v>247904.611704866</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4051,11 +4017,15 @@
         <v>247904.611704866</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4084,11 +4054,15 @@
         <v>247904.611704866</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4117,11 +4091,15 @@
         <v>247904.611704866</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4150,11 +4128,15 @@
         <v>251419.300704866</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4183,11 +4165,15 @@
         <v>251419.300704866</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4216,11 +4202,15 @@
         <v>251419.300704866</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4249,11 +4239,15 @@
         <v>251419.300704866</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4282,11 +4276,15 @@
         <v>251419.300704866</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4315,11 +4313,15 @@
         <v>259551.508904866</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4348,11 +4350,15 @@
         <v>275958.430804866</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4381,11 +4387,15 @@
         <v>275958.430804866</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4414,11 +4424,15 @@
         <v>278285.128704866</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4447,11 +4461,15 @@
         <v>278285.128704866</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4480,11 +4498,15 @@
         <v>273705.582904866</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4513,11 +4535,15 @@
         <v>312497.277804866</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4546,11 +4572,15 @@
         <v>307721.845404866</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4579,11 +4609,15 @@
         <v>214345.080604866</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4612,11 +4646,15 @@
         <v>214355.080604866</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4645,11 +4683,15 @@
         <v>212257.547304866</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4678,11 +4720,15 @@
         <v>213177.547304866</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4711,11 +4757,15 @@
         <v>223112.324904866</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4744,11 +4794,15 @@
         <v>222199.835904866</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4777,11 +4831,15 @@
         <v>256531.338704866</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4810,11 +4868,15 @@
         <v>288429.636304866</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4843,11 +4905,15 @@
         <v>263069.526304866</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4876,11 +4942,15 @@
         <v>267575.473004866</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4909,11 +4979,15 @@
         <v>281851.936404866</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4942,11 +5016,15 @@
         <v>281851.936404866</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4975,11 +5053,15 @@
         <v>285750.915304866</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5008,11 +5090,15 @@
         <v>296733.582704866</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5041,11 +5127,15 @@
         <v>321988.703304866</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5074,11 +5164,15 @@
         <v>296807.904204866</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5107,11 +5201,15 @@
         <v>296807.904204866</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5140,11 +5238,15 @@
         <v>296664.404204866</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5173,11 +5275,15 @@
         <v>296578.7222048661</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5206,11 +5312,15 @@
         <v>296367.4777048661</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5239,11 +5349,15 @@
         <v>297607.7296656796</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5272,11 +5386,15 @@
         <v>297540.4817656795</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5305,11 +5423,15 @@
         <v>297540.4817656795</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5338,11 +5460,15 @@
         <v>282540.4817656795</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5371,11 +5497,15 @@
         <v>282540.4817656795</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5404,11 +5534,15 @@
         <v>276901.4416656796</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5437,11 +5571,15 @@
         <v>279956.5303656796</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5470,11 +5608,15 @@
         <v>279968.5303656796</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5503,11 +5645,15 @@
         <v>279968.5303656796</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5536,11 +5682,15 @@
         <v>279968.5303656796</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5569,11 +5719,15 @@
         <v>279257.5303656796</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5606,7 +5760,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5639,7 +5797,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5672,7 +5834,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5705,7 +5871,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5738,7 +5908,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5771,7 +5945,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5804,7 +5982,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5837,7 +6019,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5870,7 +6056,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5903,7 +6093,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5936,7 +6130,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5969,7 +6167,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6002,7 +6204,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6035,7 +6241,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6068,7 +6278,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6101,7 +6315,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6134,7 +6352,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6167,7 +6389,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6200,7 +6426,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6233,7 +6463,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6266,7 +6500,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6299,7 +6537,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6332,7 +6574,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6365,7 +6611,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6398,7 +6648,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6431,7 +6685,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6464,7 +6722,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6497,7 +6759,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6530,7 +6796,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6563,7 +6833,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6596,7 +6870,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6629,7 +6907,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6662,7 +6944,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6695,7 +6981,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6728,7 +7018,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6761,7 +7055,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6794,7 +7092,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6827,7 +7129,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6860,7 +7166,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6893,7 +7203,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6926,7 +7240,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6959,7 +7277,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6992,7 +7314,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7025,7 +7351,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7058,7 +7388,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7091,7 +7425,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7124,7 +7462,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7157,7 +7499,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7190,7 +7536,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7223,7 +7573,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7256,7 +7610,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7289,7 +7647,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7322,7 +7684,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7355,7 +7721,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7388,7 +7758,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7421,7 +7795,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7454,7 +7832,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7487,7 +7869,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7520,7 +7906,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7553,7 +7943,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7586,7 +7980,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7619,7 +8017,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7652,7 +8054,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7685,7 +8091,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7714,11 +8124,15 @@
         <v>44332.84181398519</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7747,11 +8161,15 @@
         <v>30228.56691398519</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7780,11 +8198,15 @@
         <v>30767.56691398519</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7813,11 +8235,15 @@
         <v>29333.08491398519</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7846,11 +8272,15 @@
         <v>25332.60291398519</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7879,11 +8309,15 @@
         <v>48456.04291398519</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7912,11 +8346,15 @@
         <v>89162.4998139852</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7945,11 +8383,15 @@
         <v>35994.1758139852</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7978,11 +8420,15 @@
         <v>35994.1758139852</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8011,11 +8457,15 @@
         <v>35994.1758139852</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8044,11 +8494,15 @@
         <v>87961.0669139852</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8077,11 +8531,15 @@
         <v>84634.7419139852</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8110,11 +8568,15 @@
         <v>106014.9655139852</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8143,11 +8605,15 @@
         <v>104319.2184139852</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8176,11 +8642,15 @@
         <v>104319.2184139852</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8209,11 +8679,15 @@
         <v>25781.7444139852</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8242,11 +8716,15 @@
         <v>25253.7444139852</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8275,11 +8753,15 @@
         <v>25034.9099139852</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8308,11 +8790,15 @@
         <v>23762.6773139852</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8341,11 +8827,15 @@
         <v>23762.6773139852</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8374,11 +8864,15 @@
         <v>31705.6773139852</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8407,11 +8901,15 @@
         <v>16054.6535139852</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8440,11 +8938,15 @@
         <v>11225.9412139852</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8473,11 +8975,15 @@
         <v>9775.941213985199</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8506,11 +9012,15 @@
         <v>-12954.9326860148</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8539,11 +9049,15 @@
         <v>-67290.5371860148</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8572,11 +9086,15 @@
         <v>-67290.5371860148</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8609,7 +9127,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8642,7 +9164,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8671,11 +9197,15 @@
         <v>-83328.26038601479</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8704,11 +9234,15 @@
         <v>-67053.30138601479</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8737,11 +9271,15 @@
         <v>-72236.35148601478</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8770,11 +9308,15 @@
         <v>-72236.35148601478</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8803,11 +9345,15 @@
         <v>-59255.93058601479</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8836,11 +9382,15 @@
         <v>-62193.47528601479</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8869,11 +9419,15 @@
         <v>-52542.07348601479</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8902,11 +9456,15 @@
         <v>-52542.07348601479</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8935,11 +9493,15 @@
         <v>-66660.07348601479</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8968,11 +9530,15 @@
         <v>-296602.7495860148</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9005,7 +9571,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9038,7 +9608,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9071,7 +9645,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9104,7 +9682,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9137,7 +9719,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9170,7 +9756,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9203,7 +9793,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9236,7 +9830,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9269,7 +9867,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9302,7 +9904,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9335,7 +9941,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9368,7 +9978,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9401,7 +10015,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9434,7 +10052,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9467,7 +10089,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9500,7 +10126,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9533,7 +10163,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9566,7 +10200,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9599,7 +10237,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9628,11 +10270,15 @@
         <v>33068.22925641059</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9661,11 +10307,15 @@
         <v>35146.09845641059</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9694,11 +10344,15 @@
         <v>35146.09845641059</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9727,11 +10381,15 @@
         <v>35146.09845641059</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9760,11 +10418,15 @@
         <v>38473.79675641059</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9793,11 +10455,15 @@
         <v>38473.79675641059</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9826,11 +10492,15 @@
         <v>44037.46585641059</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9859,11 +10529,15 @@
         <v>44037.46585641059</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9892,11 +10566,15 @@
         <v>47766.46585641059</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9925,11 +10603,15 @@
         <v>65329.8225564106</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9958,11 +10640,15 @@
         <v>65329.8225564106</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9991,11 +10677,15 @@
         <v>90972.3088564106</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10024,11 +10714,15 @@
         <v>90972.3088564106</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10061,7 +10755,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10094,7 +10792,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10127,7 +10829,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10160,7 +10866,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10193,7 +10903,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10226,7 +10940,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10259,7 +10977,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10292,7 +11014,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10325,7 +11051,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10358,7 +11088,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10391,7 +11125,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10424,7 +11162,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10457,7 +11199,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10490,7 +11236,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10523,7 +11273,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10556,7 +11310,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10589,7 +11347,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10622,7 +11384,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10655,7 +11421,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10688,7 +11458,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10721,7 +11495,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10754,7 +11532,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10787,7 +11569,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10820,7 +11606,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10853,7 +11643,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10886,7 +11680,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10919,7 +11717,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10952,7 +11754,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10985,7 +11791,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11018,7 +11828,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11051,7 +11865,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11084,7 +11902,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11117,7 +11939,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11150,7 +11976,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11183,7 +12013,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11216,7 +12050,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11249,7 +12087,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11282,7 +12124,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11315,7 +12161,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11348,7 +12198,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11381,7 +12235,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11414,7 +12272,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11447,7 +12309,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11480,7 +12346,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11513,7 +12383,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11546,7 +12420,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11579,7 +12457,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11612,7 +12494,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11645,7 +12531,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11678,7 +12568,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11711,7 +12605,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11744,7 +12642,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11777,7 +12679,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11810,7 +12716,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11843,7 +12753,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11876,7 +12790,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11909,7 +12827,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11942,7 +12864,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11975,7 +12901,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12008,7 +12938,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12041,7 +12975,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12074,7 +13012,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12107,7 +13049,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12140,7 +13086,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12173,7 +13123,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12206,7 +13160,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12239,7 +13197,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12272,7 +13234,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12305,7 +13271,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12338,7 +13308,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12371,7 +13345,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12404,7 +13382,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12437,7 +13419,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12470,7 +13456,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12503,7 +13493,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12536,7 +13530,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12569,7 +13567,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12602,7 +13604,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12635,7 +13641,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12668,7 +13678,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12701,7 +13715,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12734,7 +13752,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12767,7 +13789,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12800,7 +13826,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12833,7 +13863,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12866,7 +13900,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12899,7 +13937,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12932,7 +13974,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12965,7 +14011,11 @@
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12998,7 +14048,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13031,7 +14085,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13064,7 +14122,11 @@
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13097,7 +14159,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13130,7 +14196,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13163,7 +14233,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13196,7 +14270,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13229,7 +14307,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13262,7 +14344,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13295,7 +14381,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13328,7 +14418,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13361,7 +14455,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13394,7 +14492,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13427,7 +14529,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13460,7 +14566,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13493,7 +14603,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13526,7 +14640,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13559,7 +14677,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13592,7 +14714,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13625,7 +14751,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13658,7 +14788,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13691,7 +14825,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13724,7 +14862,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13757,7 +14899,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13790,7 +14936,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13823,7 +14973,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13856,7 +15010,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13889,7 +15047,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13922,7 +15084,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13951,11 +15117,15 @@
         <v>-76912.89086368894</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13984,11 +15154,15 @@
         <v>-65452.25436368894</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14017,11 +15191,15 @@
         <v>-65452.25436368894</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14050,11 +15228,15 @@
         <v>-65452.25436368894</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14083,11 +15265,15 @@
         <v>-64232.88856368894</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14116,11 +15302,15 @@
         <v>-64232.88856368894</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14149,11 +15339,15 @@
         <v>-62557.13006368894</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14182,11 +15376,15 @@
         <v>-62557.13006368894</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14215,11 +15413,15 @@
         <v>-32157.60476368893</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14248,11 +15450,15 @@
         <v>-31716.26306368893</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14281,11 +15487,15 @@
         <v>-31716.26306368893</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14314,11 +15524,15 @@
         <v>-43043.76436368893</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14347,11 +15561,15 @@
         <v>-38806.49326368894</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14380,11 +15598,15 @@
         <v>-38806.49326368894</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14413,11 +15635,15 @@
         <v>-38806.49326368894</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14446,11 +15672,15 @@
         <v>-38669.49326368894</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14479,11 +15709,15 @@
         <v>-25473.28446368893</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14516,7 +15750,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14549,7 +15787,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14582,7 +15824,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14615,7 +15861,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14648,7 +15898,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14681,7 +15935,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14714,7 +15972,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14747,7 +16009,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14780,7 +16046,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14813,7 +16083,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14846,7 +16120,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14879,7 +16157,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14912,7 +16194,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14945,7 +16231,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14978,7 +16268,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15011,7 +16305,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15044,7 +16342,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15077,7 +16379,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15110,7 +16416,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15143,7 +16453,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15176,7 +16490,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15209,7 +16527,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15242,7 +16564,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15275,7 +16601,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15308,7 +16638,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15341,7 +16675,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15374,7 +16712,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15407,7 +16749,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15440,7 +16786,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15473,7 +16823,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15506,7 +16860,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15539,7 +16897,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15572,7 +16934,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15605,7 +16971,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15638,7 +17008,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15671,7 +17045,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15704,7 +17082,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15737,7 +17119,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15770,7 +17156,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15803,7 +17193,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15836,7 +17230,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15869,7 +17267,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15902,7 +17304,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15935,7 +17341,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15968,7 +17378,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16001,7 +17415,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16034,7 +17452,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16067,7 +17489,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16100,7 +17526,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16133,7 +17563,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16166,7 +17600,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16199,7 +17637,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16232,7 +17674,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16265,7 +17711,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16298,7 +17748,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16331,7 +17785,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16364,7 +17822,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16397,7 +17859,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16430,7 +17896,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16463,7 +17933,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16496,7 +17970,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16529,7 +18007,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16562,7 +18044,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16595,7 +18081,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16628,7 +18118,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16661,7 +18155,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16694,7 +18192,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16727,7 +18229,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16760,7 +18266,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16793,7 +18303,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16826,7 +18340,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16859,7 +18377,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16892,7 +18414,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16925,7 +18451,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16958,7 +18488,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16991,7 +18525,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17024,7 +18562,11 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17057,7 +18599,11 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17090,7 +18636,11 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17123,7 +18673,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17156,7 +18710,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17189,7 +18747,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17222,7 +18784,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17255,7 +18821,11 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17288,7 +18858,11 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17321,7 +18895,11 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17354,7 +18932,11 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17387,7 +18969,11 @@
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17420,7 +19006,11 @@
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17453,7 +19043,11 @@
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17486,7 +19080,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17519,7 +19117,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17552,7 +19154,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17585,7 +19191,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17618,7 +19228,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17651,7 +19265,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17684,7 +19302,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17717,7 +19339,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17750,7 +19376,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17783,7 +19413,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17816,7 +19450,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17849,7 +19487,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17882,7 +19524,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17915,7 +19561,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17948,7 +19598,11 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17981,7 +19635,11 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18014,7 +19672,11 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18047,7 +19709,11 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18080,7 +19746,11 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18113,7 +19783,11 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18146,7 +19820,11 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18179,7 +19857,11 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18212,7 +19894,11 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18245,7 +19931,11 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18278,7 +19968,11 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18311,7 +20005,11 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18344,7 +20042,11 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18377,7 +20079,11 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18410,7 +20116,11 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18443,7 +20153,11 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18476,7 +20190,11 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18509,7 +20227,11 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18542,7 +20264,11 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18575,7 +20301,11 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18608,7 +20338,11 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18641,7 +20375,11 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18674,7 +20412,11 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18707,7 +20449,11 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18740,7 +20486,11 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18773,7 +20523,11 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18806,7 +20560,11 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18839,7 +20597,11 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18872,7 +20634,11 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18905,7 +20671,11 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18934,14 +20704,16 @@
         <v>517808.0889679688</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
-      <c r="L551" t="n">
-        <v>1</v>
-      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L551" t="inlineStr"/>
       <c r="M551" t="inlineStr"/>
     </row>
     <row r="552">
@@ -18967,7 +20739,7 @@
         <v>602579.4913679687</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19000,7 +20772,7 @@
         <v>626653.7666018072</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19033,7 +20805,7 @@
         <v>625353.0330018072</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19066,7 +20838,7 @@
         <v>556356.1086018072</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19099,7 +20871,7 @@
         <v>559521.9179018071</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19132,7 +20904,7 @@
         <v>542458.6663018072</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19165,7 +20937,7 @@
         <v>558052.1183018072</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19198,7 +20970,7 @@
         <v>564962.2030018072</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19231,7 +21003,7 @@
         <v>564962.2030018072</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19264,7 +21036,7 @@
         <v>518658.8650018072</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19297,7 +21069,7 @@
         <v>512159.3208018072</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19330,7 +21102,7 @@
         <v>512170.1766018072</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19363,7 +21135,7 @@
         <v>512170.1766018072</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19396,7 +21168,7 @@
         <v>510976.1766018072</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19429,7 +21201,7 @@
         <v>504518.0099018072</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19462,7 +21234,7 @@
         <v>504524.0099018072</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19495,7 +21267,7 @@
         <v>504524.0099018072</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19528,7 +21300,7 @@
         <v>503894.9554018072</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19561,7 +21333,7 @@
         <v>503900.9554018072</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19594,7 +21366,7 @@
         <v>491900.9554018072</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19627,7 +21399,7 @@
         <v>44124.51830180723</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19660,7 +21432,7 @@
         <v>89870.27640180723</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
